--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.111720.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.111720.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2529,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3243,12 +3243,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4083,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4419,12 +4419,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4461,12 +4461,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4713,12 +4713,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4965,12 +4965,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5091,12 +5091,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5637,12 +5637,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7359,12 +7359,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7569,12 +7569,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7611,12 +7611,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7737,12 +7737,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8157,12 +8157,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8535,12 +8535,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8997,12 +8997,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9543,12 +9543,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9963,12 +9963,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11097,12 +11097,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11601,12 +11601,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11685,12 +11685,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11895,12 +11895,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11937,12 +11937,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12483,12 +12483,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12777,12 +12777,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12987,12 +12987,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13701,12 +13701,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14205,12 +14205,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15129,12 +15129,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15213,12 +15213,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15801,12 +15801,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15885,12 +15885,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16011,12 +16011,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17187,12 +17187,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18027,12 +18027,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20001,12 +20001,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20169,12 +20169,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20211,12 +20211,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20337,12 +20337,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21639,12 +21639,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22857,12 +22857,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23025,12 +23025,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23277,12 +23277,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23529,12 +23529,12 @@
       <c r="H550" t="inlineStr"/>
       <c r="I550" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23571,12 +23571,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23655,12 +23655,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23739,12 +23739,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25251,12 +25251,12 @@
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25335,12 +25335,12 @@
       <c r="H593" t="inlineStr"/>
       <c r="I593" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
